--- a/frontend/public/CC1 Ranks.xlsx
+++ b/frontend/public/CC1 Ranks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praty\Documents\WnCC2025\wncc website\WnCC Backend+Frontend\frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C3264B-AB55-4D6B-BFAA-74B6C0A6B773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D584F74-F1F4-40BB-B3F1-C2494103498D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="772">
   <si>
     <t>Rank</t>
   </si>
@@ -80,18 +80,6 @@
   </si>
   <si>
     <t>2nd</t>
-  </si>
-  <si>
-    <t>mrigank_wncc</t>
-  </si>
-  <si>
-    <t>ccid2025-wl2s</t>
-  </si>
-  <si>
-    <t>Mrigank Goel</t>
-  </si>
-  <si>
-    <t>24b0906@iitb.ac.in</t>
   </si>
   <si>
     <t>omhari</t>
@@ -2393,15 +2381,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2824,8 +2810,8 @@
   </sheetPr>
   <dimension ref="A1:H217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="C209" sqref="C209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2927,7 +2913,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2935,19 +2921,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2955,19 +2941,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2987,7 +2973,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3007,7 +2993,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3027,7 +3013,7 @@
         <v>45</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3047,7 +3033,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3067,7 +3053,7 @@
         <v>53</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3087,7 +3073,7 @@
         <v>57</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3107,7 +3093,7 @@
         <v>61</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3117,30 +3103,30 @@
       <c r="B15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
@@ -3159,7 +3145,7 @@
         <v>70</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3179,7 +3165,7 @@
         <v>74</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3199,7 +3185,7 @@
         <v>78</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3219,7 +3205,7 @@
         <v>82</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3239,7 +3225,7 @@
         <v>86</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3259,7 +3245,7 @@
         <v>90</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3279,7 +3265,7 @@
         <v>94</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3289,27 +3275,17 @@
       <c r="B24" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="5"/>
+      <c r="B25" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -3318,13 +3294,21 @@
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
@@ -3343,7 +3327,7 @@
         <v>104</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -3363,7 +3347,7 @@
         <v>108</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -3373,30 +3357,29 @@
       <c r="B29" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
@@ -3405,30 +3388,29 @@
       <c r="B31" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
@@ -3437,30 +3419,30 @@
       <c r="B33" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
@@ -3489,30 +3471,29 @@
       <c r="B36" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
@@ -3541,30 +3522,29 @@
       <c r="B39" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="F40" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
@@ -3583,7 +3563,7 @@
         <v>145</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -3633,27 +3613,17 @@
       <c r="B44" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C45" s="5"/>
+      <c r="B45" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -3662,45 +3632,52 @@
       <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+      <c r="F46" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="47" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C47" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>164</v>
-      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+      <c r="F48" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="49" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
@@ -3709,30 +3686,29 @@
       <c r="B49" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
+      <c r="F50" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="51" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
@@ -3791,7 +3767,7 @@
         <v>182</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -3831,7 +3807,7 @@
         <v>190</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -3861,30 +3837,29 @@
       <c r="B57" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
     </row>
     <row r="58" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
+      <c r="F58" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="59" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
@@ -3903,7 +3878,7 @@
         <v>203</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -3943,7 +3918,7 @@
         <v>211</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -3963,7 +3938,7 @@
         <v>215</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -3983,7 +3958,7 @@
         <v>219</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -4003,7 +3978,7 @@
         <v>223</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>33</v>
+        <v>224</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -4011,19 +3986,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>228</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -4043,7 +4018,7 @@
         <v>232</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -4083,7 +4058,7 @@
         <v>240</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -4143,7 +4118,7 @@
         <v>252</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -4163,7 +4138,7 @@
         <v>256</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>228</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -4223,7 +4198,7 @@
         <v>268</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -4243,7 +4218,7 @@
         <v>272</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -4263,7 +4238,7 @@
         <v>276</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -4283,7 +4258,7 @@
         <v>280</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>228</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -4303,7 +4278,7 @@
         <v>284</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -4323,7 +4298,7 @@
         <v>288</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>228</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -4343,7 +4318,7 @@
         <v>292</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -4363,7 +4338,7 @@
         <v>296</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -4383,7 +4358,7 @@
         <v>300</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>228</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -4403,7 +4378,7 @@
         <v>304</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -4423,7 +4398,7 @@
         <v>308</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>33</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -4443,7 +4418,7 @@
         <v>312</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -4463,7 +4438,7 @@
         <v>316</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -4483,7 +4458,7 @@
         <v>320</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -4503,7 +4478,7 @@
         <v>324</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>228</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -4523,7 +4498,7 @@
         <v>328</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -4543,7 +4518,7 @@
         <v>332</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>228</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -4563,7 +4538,7 @@
         <v>336</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -4583,7 +4558,7 @@
         <v>340</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -4603,7 +4578,7 @@
         <v>344</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>228</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -4623,7 +4598,7 @@
         <v>348</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -4643,7 +4618,7 @@
         <v>352</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -4663,7 +4638,7 @@
         <v>356</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -4683,7 +4658,7 @@
         <v>360</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>228</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -4703,7 +4678,7 @@
         <v>364</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -4723,7 +4698,7 @@
         <v>368</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -4743,7 +4718,7 @@
         <v>372</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -4763,7 +4738,7 @@
         <v>376</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>228</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -4783,7 +4758,7 @@
         <v>380</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>33</v>
+        <v>224</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -4803,7 +4778,7 @@
         <v>384</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>228</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -4823,7 +4798,7 @@
         <v>388</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -4843,7 +4818,7 @@
         <v>392</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>28</v>
+        <v>224</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -4863,7 +4838,7 @@
         <v>396</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>228</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -4873,27 +4848,26 @@
       <c r="B108" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="E108" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>400</v>
-      </c>
       <c r="F108" s="1" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>108</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C109" s="5"/>
       <c r="D109" s="1" t="s">
         <v>402</v>
       </c>
@@ -4901,7 +4875,7 @@
         <v>403</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -4921,7 +4895,7 @@
         <v>407</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>228</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -4941,7 +4915,7 @@
         <v>411</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -4961,7 +4935,7 @@
         <v>415</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>228</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -5041,7 +5015,7 @@
         <v>431</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -5061,7 +5035,7 @@
         <v>435</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -5072,16 +5046,16 @@
         <v>436</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -5089,32 +5063,31 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>228</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
     </row>
     <row r="120" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>119</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C120" s="5"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
+      <c r="F120" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="121" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
@@ -5133,7 +5106,7 @@
         <v>445</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -5153,7 +5126,7 @@
         <v>449</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>228</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -5173,7 +5146,7 @@
         <v>453</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -5213,7 +5186,7 @@
         <v>461</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -5223,30 +5196,29 @@
       <c r="B126" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
     </row>
     <row r="127" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>126</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B127" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E127" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="C127" s="5"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
+      <c r="F127" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="128" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
@@ -5265,7 +5237,7 @@
         <v>470</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -5285,7 +5257,7 @@
         <v>474</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>228</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -5305,7 +5277,7 @@
         <v>478</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -5325,7 +5297,7 @@
         <v>482</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>228</v>
+        <v>24</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -5345,7 +5317,7 @@
         <v>486</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -5527,7 +5499,7 @@
         <v>522</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -5547,7 +5519,7 @@
         <v>526</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -5567,7 +5539,7 @@
         <v>530</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>228</v>
+        <v>19</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -5607,7 +5579,7 @@
         <v>538</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -5624,10 +5596,10 @@
         <v>541</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>228</v>
+        <v>160</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -5635,19 +5607,19 @@
         <v>132</v>
       </c>
       <c r="B147" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="D147" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="E147" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="E147" s="1" t="s">
-        <v>526</v>
-      </c>
       <c r="F147" s="1" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -5657,30 +5629,29 @@
       <c r="B148" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>228</v>
-      </c>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
     </row>
     <row r="149" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>132</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="B149" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="E149" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="C149" s="5"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
+      <c r="F149" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="H149" s="3"/>
     </row>
     <row r="150" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -5700,7 +5671,7 @@
         <v>554</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -5720,7 +5691,7 @@
         <v>558</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -5730,30 +5701,29 @@
       <c r="B152" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="C152" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>228</v>
-      </c>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
     </row>
     <row r="153" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>132</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="B153" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="E153" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="C153" s="5"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
+      <c r="F153" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="H153" s="3"/>
     </row>
     <row r="154" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -5773,7 +5743,7 @@
         <v>567</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>228</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -5793,7 +5763,7 @@
         <v>571</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -5813,7 +5783,7 @@
         <v>575</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>228</v>
+        <v>19</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -5853,7 +5823,7 @@
         <v>583</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -5863,30 +5833,29 @@
       <c r="B159" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="C159" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>228</v>
-      </c>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
     </row>
     <row r="160" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>132</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B160" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E160" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="C160" s="5"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
+      <c r="F160" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="H160" s="3"/>
     </row>
     <row r="161" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -5906,7 +5875,7 @@
         <v>592</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -5926,7 +5895,7 @@
         <v>596</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -5946,7 +5915,7 @@
         <v>600</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -5966,7 +5935,7 @@
         <v>604</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -5986,7 +5955,7 @@
         <v>608</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>228</v>
+        <v>19</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -6026,7 +5995,7 @@
         <v>616</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -6046,7 +6015,7 @@
         <v>620</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>228</v>
+        <v>24</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -6066,7 +6035,7 @@
         <v>624</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>28</v>
+        <v>224</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -6086,7 +6055,7 @@
         <v>628</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>228</v>
+        <v>19</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -6126,7 +6095,7 @@
         <v>636</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -6146,7 +6115,7 @@
         <v>640</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>28</v>
+        <v>224</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -6166,7 +6135,7 @@
         <v>644</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -6186,7 +6155,7 @@
         <v>648</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -6206,7 +6175,7 @@
         <v>652</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -6226,7 +6195,7 @@
         <v>656</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -6246,7 +6215,7 @@
         <v>660</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -6266,7 +6235,7 @@
         <v>664</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>228</v>
+        <v>19</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -6286,7 +6255,7 @@
         <v>668</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -6306,7 +6275,7 @@
         <v>672</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>228</v>
+        <v>19</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -6326,7 +6295,7 @@
         <v>676</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -6346,7 +6315,7 @@
         <v>680</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>228</v>
+        <v>19</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -6366,7 +6335,7 @@
         <v>684</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -6386,7 +6355,7 @@
         <v>688</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>228</v>
+        <v>19</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -6396,30 +6365,29 @@
       <c r="B186" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="C186" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
     </row>
     <row r="187" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>132</v>
       </c>
-      <c r="B187" s="4" t="s">
+      <c r="B187" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="E187" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="C187" s="5"/>
-      <c r="D187" s="1"/>
-      <c r="E187" s="1"/>
-      <c r="F187" s="1"/>
+      <c r="F187" s="1" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="188" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
@@ -6438,7 +6406,7 @@
         <v>697</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -6458,7 +6426,7 @@
         <v>701</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>228</v>
+        <v>29</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -6478,7 +6446,7 @@
         <v>705</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -6538,7 +6506,7 @@
         <v>717</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -6558,7 +6526,7 @@
         <v>721</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>228</v>
+        <v>29</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -6568,30 +6536,29 @@
       <c r="B195" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="C195" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
     </row>
     <row r="196" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>132</v>
       </c>
-      <c r="B196" s="4" t="s">
+      <c r="B196" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="E196" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="C196" s="5"/>
-      <c r="D196" s="1"/>
-      <c r="E196" s="1"/>
-      <c r="F196" s="1"/>
+      <c r="F196" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="197" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
@@ -6610,7 +6577,7 @@
         <v>730</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -6630,7 +6597,7 @@
         <v>734</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>33</v>
+        <v>224</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -6650,7 +6617,7 @@
         <v>738</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -6670,7 +6637,7 @@
         <v>742</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>228</v>
+        <v>19</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -6760,30 +6727,29 @@
       <c r="B205" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="C205" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="F205" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
     </row>
     <row r="206" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>132</v>
       </c>
-      <c r="B206" s="4" t="s">
+      <c r="B206" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="E206" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="C206" s="5"/>
-      <c r="D206" s="1"/>
-      <c r="E206" s="1"/>
-      <c r="F206" s="1"/>
+      <c r="F206" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="207" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
@@ -6802,7 +6768,7 @@
         <v>767</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -6822,28 +6788,11 @@
         <v>771</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A209" s="2">
-        <v>132</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="F209" s="1" t="s">
-        <v>228</v>
-      </c>
+      <c r="A209" s="2"/>
     </row>
     <row r="210" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
@@ -6910,28 +6859,6 @@
       <c r="F217" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B206:C206"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B196:C196"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B40:C40"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/frontend/public/CC1 Ranks.xlsx
+++ b/frontend/public/CC1 Ranks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praty\Documents\WnCC2025\wncc website\WnCC Backend+Frontend\frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D584F74-F1F4-40BB-B3F1-C2494103498D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD250B3-A5E8-482C-879C-D0E546BFE1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="775">
   <si>
     <t>Rank</t>
   </si>
@@ -2336,13 +2336,22 @@
   </si>
   <si>
     <t>25b0974@iitb.ac.in</t>
+  </si>
+  <si>
+    <t>24b0395@iitb.ac.in</t>
+  </si>
+  <si>
+    <t>Parth Bansal</t>
+  </si>
+  <si>
+    <t>ccid2025-3l2d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2359,6 +2368,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2381,13 +2396,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2810,8 +2826,8 @@
   </sheetPr>
   <dimension ref="A1:H217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="C209" sqref="C209"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3613,9 +3629,18 @@
       <c r="B44" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="C44" t="s">
+        <v>774</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
@@ -6860,5 +6885,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>